--- a/assets/timetable.xlsx
+++ b/assets/timetable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shani\Documents\GitHub\marks\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E580141-C172-4C6A-ABD1-1AB0D55C434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4651797D-8168-474F-8DAE-7B9C3EE69D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="141">
   <si>
     <r>
       <rPr>
@@ -1528,6 +1528,9 @@
   </si>
   <si>
     <t>Teacher</t>
+  </si>
+  <si>
+    <t>Technology Entrepreneurship (2hrs)</t>
   </si>
 </sst>
 </file>
@@ -1748,15 +1751,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1768,6 +1762,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2105,7 +2108,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2128,7 +2131,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2172,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2192,7 +2195,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
@@ -2268,7 +2271,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
@@ -2299,7 +2302,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="8"/>
@@ -2316,7 +2319,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="5" t="s">
@@ -2358,7 +2361,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
@@ -2373,7 +2376,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -2402,7 +2405,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2421,7 +2424,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>129</v>
       </c>
@@ -2443,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8733F8-6A5A-44B3-9D06-2434B962E4C0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2474,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
@@ -2492,7 +2495,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
@@ -2525,7 +2528,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="8"/>
@@ -2544,7 +2547,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>124</v>
@@ -2594,7 +2597,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2617,7 +2620,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
@@ -2658,7 +2661,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2681,7 +2684,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
@@ -2735,7 +2738,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2756,7 +2759,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2793,7 +2796,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2814,7 +2817,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>49</v>
       </c>
@@ -2868,7 +2871,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2891,7 +2894,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
@@ -2928,7 +2931,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2947,7 +2950,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
@@ -2999,7 +3002,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3022,7 +3025,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
@@ -3061,7 +3064,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3082,7 +3085,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
@@ -3106,11 +3109,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCAA1B7-13EA-40B5-9826-CC7DA923DEE0}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
@@ -3136,7 +3146,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3159,7 +3169,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
@@ -3176,13 +3186,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>68</v>
@@ -3198,7 +3208,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="8"/>
@@ -3219,7 +3229,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5" t="s">
         <v>71</v>
@@ -3273,7 +3283,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3296,7 +3306,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>82</v>
       </c>
@@ -3337,7 +3347,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3360,7 +3370,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>83</v>
       </c>
@@ -3416,7 +3426,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3439,7 +3449,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>96</v>
       </c>
@@ -3476,7 +3486,7 @@
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3495,7 +3505,7 @@
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>98</v>
       </c>
@@ -3545,7 +3555,7 @@
       <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3566,7 +3576,7 @@
       <c r="A3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>109</v>
       </c>
@@ -3597,13 +3607,13 @@
       <c r="F4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3618,13 +3628,13 @@
       <c r="F5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="5" t="s">
         <v>92</v>
       </c>
@@ -3635,7 +3645,7 @@
       <c r="F6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
